--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\SMT 4\Pengantar AI\TuPro 3\TuPro3-AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7A8D0C-4C22-47DB-A5D9-A09AD2E37462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEFCAE5-D52C-4473-8B2D-DEF189FB58FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A61043A8-506D-4444-9C88-CD497A26567D}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{A61043A8-506D-4444-9C88-CD497A26567D}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
